--- a/datf_core/test/testcases/testcase18_parquet_dbtable_match_likeobject.xlsx
+++ b/datf_core/test/testcases/testcase18_parquet_dbtable_match_likeobject.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TigerAnalytics\accelerator\QE_Automated_Testing_Framework\test\testcases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\DATF_Other\Databricks\QE_ATF\datf_core\test\testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7366A97B-3D73-4455-BF60-0A3BA639B1F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C641C2DF-ADD6-46DF-A195-32EC51F48EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="testcase" sheetId="1" r:id="rId1"/>
@@ -177,7 +177,7 @@
     <t>id</t>
   </si>
   <si>
-    <t>/app/test/data/source</t>
+    <t>test/data/source</t>
   </si>
 </sst>
 </file>
@@ -553,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
